--- a/data/income_statement/2digits/total/63_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/63_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>63-Information service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>63-Information service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>639580.6022300001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>754863.96936</v>
+        <v>754863.9693599999</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>924335.56377</v>
@@ -965,28 +871,33 @@
         <v>1000445.1091</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1205555.88605</v>
+        <v>1210054.35414</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1550601.76582</v>
+        <v>1563516.98339</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1863368.97469</v>
+        <v>1883939.97409</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2299029.36392</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5345289.250800001</v>
+        <v>5350697.33866</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7065683.151860001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7081622.11262</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8069447.963</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>567090.96013</v>
@@ -995,37 +906,42 @@
         <v>673851.5392100001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>822018.5424100001</v>
+        <v>822018.54241</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>827476.6494300001</v>
+        <v>827476.64943</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>868338.43082</v>
+        <v>868338.4308199999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1022011.40492</v>
+        <v>1026495.99975</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1319042.44931</v>
+        <v>1329722.47767</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1581148.04042</v>
+        <v>1599426.24029</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1953917.66549</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4604632.68628</v>
+        <v>4607166.38357</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5310973.796889999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5323255.064700001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6617953.03</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>60200.23778</v>
@@ -1043,28 +959,33 @@
         <v>117260.67004</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>159251.3439</v>
+        <v>159262.01751</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>194282.95221</v>
+        <v>196518.14142</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>226472.31856</v>
+        <v>228060.04075</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>277231.8639400001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>688286.7140400001</v>
+        <v>691131.8796</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1685900.82953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1689486.51293</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1372422.452</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>12289.40432</v>
@@ -1082,28 +1003,33 @@
         <v>14846.00824</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>24293.13723</v>
+        <v>24296.33688</v>
       </c>
       <c r="I8" s="48" t="n">
         <v>37276.36429999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>55748.61571</v>
+        <v>56453.69304999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>67879.83449000001</v>
+        <v>67879.83448999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>52369.85048</v>
+        <v>52399.07549</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>68808.52544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>68880.53499</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>79072.481</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>15892.23615</v>
@@ -1127,22 +1053,27 @@
         <v>26064.35575</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>36797.00352000001</v>
+        <v>37282.41153</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>34568.41795999999</v>
+        <v>34568.41796</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>152247.31372</v>
+        <v>152250.47304</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>207288.78547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>207290.33547</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>205975.343</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>9858.74935</v>
@@ -1166,22 +1097,27 @@
         <v>24465.93056</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>29421.02262</v>
+        <v>29906.43063</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>21940.77661</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>136970.0841</v>
+        <v>136973.24342</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>200968.85361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>200970.40361</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>192771.837</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>6012.042179999999</v>
@@ -1196,13 +1132,13 @@
         <v>12197.41682</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7616.48686</v>
+        <v>7616.486859999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>8746.741980000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>967.01456</v>
+        <v>967.0145600000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>7369.513660000001</v>
@@ -1216,20 +1152,25 @@
       <c r="M11" s="48" t="n">
         <v>5885.112119999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>12520.813</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>21.44462</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>76.58626999999998</v>
+        <v>76.58627</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>67.94709000000002</v>
+        <v>67.94709</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>59.15505</v>
@@ -1241,7 +1182,7 @@
         <v>21.72304</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>631.4106300000001</v>
+        <v>631.41063</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>6.467239999999999</v>
@@ -1255,53 +1196,63 @@
       <c r="M12" s="48" t="n">
         <v>434.81974</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>682.693</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>623688.3660800001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>727152.90633</v>
+        <v>727152.9063299999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>899410.2234</v>
+        <v>899410.2234000001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>915114.58392</v>
+        <v>915114.5839200001</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>967843.2152999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1173627.15009</v>
+        <v>1178125.61818</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1524537.41007</v>
+        <v>1537452.62764</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1826571.97117</v>
+        <v>1846657.56256</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2264460.94596</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5193041.93708</v>
+        <v>5198446.865620001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6858394.36639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6874331.77715</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7863472.62</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>458447.47178</v>
+        <v>458447.4717800001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>527143.91302</v>
@@ -1310,34 +1261,39 @@
         <v>645823.91849</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>650833.13195</v>
+        <v>650833.1319500001</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>737568.62439</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>878866.37642</v>
+        <v>882802.9772400002</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1170085.63306</v>
+        <v>1180709.08596</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1389915.34706</v>
+        <v>1405121.77696</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1682524.87033</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3344845.42892</v>
+        <v>3352071.36933</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3850025.52396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3861680.40079</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4505347.743</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>37980.24715</v>
@@ -1355,7 +1311,7 @@
         <v>32222.75669</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>42834.12677000001</v>
+        <v>42834.42441000001</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>34061.95422</v>
@@ -1370,13 +1326,18 @@
         <v>34235.38003</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>49573.02303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>51777.33194</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>44117.844</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>35078.30606</v>
@@ -1385,7 +1346,7 @@
         <v>31195.4581</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>48752.32366</v>
+        <v>48752.32365999999</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>46846.99982</v>
@@ -1394,67 +1355,77 @@
         <v>40073.64989</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>49200.15629</v>
+        <v>49405.31465</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>67246.21442</v>
+        <v>71955.09637</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>116948.95931</v>
+        <v>127912.31431</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>153149.21418</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1233508.31191</v>
+        <v>1233565.49238</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1554190.46672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1557455.11647</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2072965.682</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>385092.61284</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>456996.4438900001</v>
+        <v>456996.44389</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>555055.38343</v>
+        <v>555055.3834299999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>565424.4616599999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>664966.54787</v>
+        <v>664966.5478700001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>786151.01199</v>
+        <v>789882.1568100001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1068031.80153</v>
+        <v>1073946.37248</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1241402.63895</v>
+        <v>1245645.71385</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1479201.86567</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2070112.87363</v>
+        <v>2077281.63357</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2233153.10934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2239339.02751</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2375138.571</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>296.30573</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>13108.92487</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>13125.646</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>165240.8943</v>
@@ -1505,34 +1481,39 @@
         <v>253586.30491</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>264281.45197</v>
+        <v>264281.4519700001</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>230274.59091</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>294760.77367</v>
+        <v>295322.64094</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>354451.77701</v>
+        <v>356743.54168</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>436656.62411</v>
+        <v>441535.7856</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>581936.0756299999</v>
+        <v>581936.07563</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1848196.50816</v>
+        <v>1846375.49629</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3008368.84243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3012651.37636</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3358124.877</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>140131.37371</v>
@@ -1547,31 +1528,36 @@
         <v>262077.08981</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>315326.1964600001</v>
+        <v>315326.19646</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>432256.00628</v>
+        <v>434235.78881</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>500764.24311</v>
+        <v>503120.6047900001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>600082.08689</v>
+        <v>608277.8904500001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>790966.2361</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1409206.65865</v>
+        <v>1410152.8086</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2267054.31146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2269811.03519</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2351567.841</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2501.00957</v>
@@ -1604,25 +1590,30 @@
         <v>30803.98483</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>57082.68945000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>55259.99219</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>75857.342</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>44094.87295</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>67335.69231999999</v>
+        <v>67335.69232</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>83718.84557999999</v>
+        <v>83718.84558000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>90683.97244000001</v>
+        <v>90683.97244</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>105495.27312</v>
@@ -1631,25 +1622,30 @@
         <v>143442.32937</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>158836.55247</v>
+        <v>158843.05327</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>209966.93271</v>
+        <v>215728.89077</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>301139.45182</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>423271.76532</v>
+        <v>423323.1724400001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1050633.33492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1052865.87425</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>927616.536</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>93535.49119</v>
@@ -1667,28 +1663,33 @@
         <v>206354.57056</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>282770.844</v>
+        <v>284750.62653</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>330112.73188</v>
+        <v>332462.59276</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>359567.08203</v>
+        <v>362000.92753</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>450772.4762</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>955130.9085</v>
+        <v>956025.65133</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1159338.28709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1161685.16875</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1348093.963</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>25109.52059</v>
@@ -1700,34 +1701,39 @@
         <v>23871.95344</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2204.362159999996</v>
+        <v>2204.362160000001</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>-85051.60554999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-137495.23261</v>
+        <v>-138913.14787</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-146312.4661</v>
+        <v>-146377.06311</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-163425.46278</v>
+        <v>-166742.10485</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-209030.16047</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>438989.84951</v>
+        <v>436222.68769</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>741314.53097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>742840.3411699999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1006557.036</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>36217.81434</v>
@@ -1745,28 +1751,33 @@
         <v>36025.61876999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>39495.49352</v>
+        <v>39651.8005</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>70397.00288</v>
+        <v>73472.71377000002</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>75051.47626</v>
+        <v>76296.35884</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>98529.27055000002</v>
+        <v>98529.27055</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>459260.80784</v>
+        <v>459802.9599399999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>312662.29823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>311566.8924</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>795332.938</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16.33062</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1574.41147</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>11235.78</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5.50737</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>8835.353950000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2765.68047</v>
@@ -1856,19 +1877,19 @@
         <v>5095.76811</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5588.994029999999</v>
+        <v>5588.994030000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6685.10361</v>
+        <v>6685.103609999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9108.823059999999</v>
+        <v>9122.440780000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13108.0638</v>
+        <v>13124.50956</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15389.46661</v>
+        <v>15533.12236</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>22760.82345</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>83747.81406999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>72721.69899999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>189.27847</v>
@@ -1907,22 +1933,27 @@
         <v>988.11172</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1055.68254</v>
+        <v>1169.29275</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>957.1168299999999</v>
+        <v>957.11683</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2370.00412</v>
+        <v>2371.53798</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>2406.56683</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3372.994</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>476.6954499999999</v>
@@ -1934,7 +1965,7 @@
         <v>712.621</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>803.6291199999999</v>
+        <v>803.6291199999998</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>1387.07749</v>
@@ -1946,7 +1977,7 @@
         <v>1027.63092</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1787.78844</v>
+        <v>2388.29145</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>4771.46208</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>11709.85997</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>10350.271</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>181.16703</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>72.45329</v>
+        <v>72.45329000000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>721.74738</v>
@@ -1979,13 +2015,13 @@
         <v>353.51367</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2044.00897</v>
+        <v>2045.98369</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>317.12312</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>371.52707</v>
+        <v>481.409</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>543.27588</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>3091.21026</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>135471.427</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>31586.50103</v>
@@ -2018,28 +2059,33 @@
         <v>19267.36221</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>22245.76106</v>
+        <v>22357.98956</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>49848.48608</v>
+        <v>52907.75121</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>49910.75511999999</v>
+        <v>50160.62071</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>61787.03123000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>329888.44938</v>
+        <v>330430.61865</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>187119.56951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>187120.73846</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>503524.554</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>102.11637</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0.95896</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27.836</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.00293</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>11.745</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>894.5375300000001</v>
@@ -2135,31 +2191,36 @@
         <v>6708.36257</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3714.2864</v>
+        <v>3742.77244</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4686.293050000001</v>
+        <v>4686.29305</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5909.789380000001</v>
+        <v>5937.15547</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>6482.65173</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>20254.18349</v>
+        <v>20252.63246</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>14176.55028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>13079.9755</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>58116.632</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>35780.21273000001</v>
+        <v>35780.21273</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>11341.1923</v>
@@ -2174,28 +2235,33 @@
         <v>32505.54717</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>35766.68634</v>
+        <v>36333.10053</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>72803.38939999999</v>
+        <v>76490.7962</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>72106.95572</v>
+        <v>72612.39455</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>73285.44762000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>387150.25025</v>
+        <v>389586.4286</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>228451.76357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>228452.26135</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>612801.29</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>283.95862</v>
@@ -2216,25 +2282,30 @@
         <v>1616.45899</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1429.44599</v>
+        <v>1430.63187</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3977.22099</v>
+        <v>3998.97843</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4128.217009999999</v>
+        <v>4128.21701</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3478.16371</v>
+        <v>3478.21467</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9340.092269999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9340.208389999998</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9801.541999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2003.72715</v>
@@ -2255,10 +2326,10 @@
         <v>6778.266380000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7424.147899999998</v>
+        <v>7424.1479</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7344.430220000001</v>
+        <v>7383.69261</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>4350.65692</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>22495.43558</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>12345.551</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>1222.63309</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>82402.178</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>32854.07023</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7455.9978</v>
+        <v>7455.997800000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>17289.45125</v>
@@ -2330,28 +2411,33 @@
         <v>24317.71761</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23590.35811</v>
+        <v>24156.7723</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>58491.54858</v>
+        <v>62177.7695</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>55653.41605</v>
+        <v>56095.14493</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>59956.05852</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>327643.54785</v>
+        <v>330079.67524</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>181472.80168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>181473.18332</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>494067.685</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>55.36792</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>12.2298</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.48236</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>582.60645</v>
@@ -2450,28 +2546,33 @@
         <v>2130.7573</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5336.0261</v>
+        <v>5336.026100000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4930.96005</v>
+        <v>4933.65017</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4789.35489</v>
+        <v>4789.354890000001</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>15673.40647</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>13908.57115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13908.57117</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14184.334</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8985.95326</v>
+        <v>8985.953260000002</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>10548.63682</v>
@@ -2486,28 +2587,33 @@
         <v>24822.99242</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>25909.16537</v>
+        <v>26092.00935</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>35696.35773</v>
+        <v>36154.75934</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>49470.88439</v>
+        <v>49512.95661</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>58614.04476</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>66875.05383</v>
+        <v>66993.23147999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>109026.77556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>109029.13826</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>94347.75199999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>8979.310320000001</v>
@@ -2525,28 +2631,33 @@
         <v>24812.16292</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>25888.34175</v>
+        <v>26071.18573</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>35688.83801000001</v>
+        <v>36147.23962000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>49408.71672</v>
+        <v>49450.72005</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>58521.45471</v>
+        <v>58521.45470999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>66762.50042</v>
+        <v>66880.67806999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>107557.90579</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>107560.26849</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>93556.277</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6.642939999999999</v>
@@ -2558,7 +2669,7 @@
         <v>1.33218</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>75.68146999999999</v>
+        <v>75.68147</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>10.8295</v>
@@ -2570,7 +2681,7 @@
         <v>7.51972</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>62.16767</v>
+        <v>62.23656</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>92.59005000000001</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1468.86977</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>791.475</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>16561.16894</v>
@@ -2603,28 +2719,33 @@
         <v>-106354.52637</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-159675.5908</v>
+        <v>-161686.45725</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-184415.21035</v>
+        <v>-185549.90488</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-209951.82663</v>
+        <v>-212571.09717</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-242400.3823</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>444225.35327</v>
+        <v>439445.98755</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>716498.29007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>716925.8339600001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1094740.932</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4399.29405</v>
@@ -2636,34 +2757,39 @@
         <v>9316.662890000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>54543.54332</v>
+        <v>54543.54331999999</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>124444.43439</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>171630.9337</v>
+        <v>171679.61273</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>190145.03701</v>
+        <v>190414.01819</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>221547.89854</v>
+        <v>221674.6249</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>256162.14954</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>286982.3826</v>
+        <v>286991.17613</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>347457.14441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>347633.62881</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>346874.129</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>965.89618</v>
@@ -2675,10 +2801,10 @@
         <v>1469.0618</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2366.572630000001</v>
+        <v>2366.57263</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2751.749929999999</v>
+        <v>2751.74993</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1061.79029</v>
@@ -2698,20 +2824,25 @@
       <c r="M49" s="48" t="n">
         <v>4447.65916</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>8856.236999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>3433.39787</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6496.3991</v>
+        <v>6496.399100000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7847.601089999999</v>
+        <v>7847.60109</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>52176.97069</v>
@@ -2720,28 +2851,33 @@
         <v>121692.68446</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>170569.14341</v>
+        <v>170617.82244</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>188429.11177</v>
+        <v>188698.09295</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>220196.01289</v>
+        <v>220322.73925</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>254532.99796</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>285422.04619</v>
+        <v>285430.83972</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>343009.4852500001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>343185.96965</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>338017.892</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>4171.30788</v>
@@ -2750,7 +2886,7 @@
         <v>9817.315719999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>44537.68379</v>
+        <v>44537.68379000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>11244.55858</v>
@@ -2762,25 +2898,30 @@
         <v>19199.43984</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>15658.42233</v>
+        <v>15860.98488</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>45285.95952999999</v>
+        <v>45343.53023</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>36690.34834</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>47165.80632000001</v>
+        <v>47194.52830000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>43706.34673</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>43802.02311</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>61005.351</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7.66656</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>931.15945</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>753.77</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1385.3053</v>
@@ -2843,7 +2989,7 @@
         <v>1410.27487</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>699.33979</v>
+        <v>707.9432099999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>4177.20841</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>2135.10708</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>10415.031</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2778.33602</v>
@@ -2879,64 +3030,74 @@
         <v>17869.72906</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12407.11867</v>
+        <v>12609.68122</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>43217.6444</v>
+        <v>43266.61168</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>30902.21982</v>
+        <v>30902.21981999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>43207.63755000001</v>
+        <v>43236.35953</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>40640.0802</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>40735.75658</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>49836.55</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>16789.15511</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>7747.46086</v>
+        <v>7747.460859999999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-20103.11785</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>34014.01954</v>
+        <v>34014.01953999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2588.97449</v>
+        <v>2588.974489999998</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-7244.096939999999</v>
+        <v>-9206.284359999996</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-9928.595670000004</v>
+        <v>-10996.87156999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-33689.88761999999</v>
+        <v>-36240.0025</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-22928.5811</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>684041.9295500001</v>
+        <v>679242.63538</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1020249.08775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1020757.43966</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1380609.71</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>6610.632820000001</v>
@@ -2954,64 +3115,72 @@
         <v>15058.243</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16812.54909</v>
+        <v>16825.82937</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>19812.01456</v>
+        <v>19860.05265</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>19379.56358</v>
+        <v>19584.82622</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>28812.92295</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>169941.84843</v>
+        <v>169976.27397</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>253816.28986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>254188.07676</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>314767.748</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>10178.52229</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-730.1177299999995</v>
+        <v>-730.117729999999</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-30404.45697</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>21240.82024</v>
+        <v>21240.82023999999</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>-12469.26851</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-24056.64603</v>
+        <v>-26032.11373</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-29740.61023000001</v>
+        <v>-30856.92421999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-53069.4512</v>
+        <v>-55824.82872</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-51741.50405</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>514100.0811199999</v>
+        <v>509266.36141</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>766432.7978900002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>766569.3629000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1065841.962</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>479</v>
@@ -3047,25 +3219,28 @@
         <v>667</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>977</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1138</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>